--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3299.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3299.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9678514286985612</v>
+        <v>0.6064498424530029</v>
       </c>
       <c r="B1">
-        <v>1.759165866114542</v>
+        <v>0.4509337544441223</v>
       </c>
       <c r="C1">
-        <v>2.65628094057014</v>
+        <v>0.4931572377681732</v>
       </c>
       <c r="D1">
-        <v>3.110631235306685</v>
+        <v>3.898004293441772</v>
       </c>
       <c r="E1">
-        <v>2.528415668088971</v>
+        <v>1.609934568405151</v>
       </c>
     </row>
   </sheetData>
